--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,19 +114,19 @@
     <t>427850003</t>
   </si>
   <si>
-    <t>Life vest/Lifejacket/Floatation device (for drowning)</t>
+    <t>Life preserver flotation device</t>
   </si>
   <si>
     <t>102384007</t>
   </si>
   <si>
-    <t>Airbag</t>
+    <t>Motor vehicle airbag</t>
   </si>
   <si>
     <t>60054005</t>
   </si>
   <si>
-    <t>Seatbelt</t>
+    <t>Seat belt</t>
   </si>
   <si>
     <t>285695004</t>
@@ -138,7 +138,7 @@
     <t>74964007</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Other</t>
   </si>
   <si>
     <t>261665006</t>
@@ -159,7 +159,7 @@
     <t>LA9389-3</t>
   </si>
   <si>
-    <t>Childseat</t>
+    <t>Child safety seat</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -222,22 +222,7 @@
     <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
   </si>
   <si>
-    <t>Life preserver flotation device</t>
-  </si>
-  <si>
-    <t>Motor vehicle airbag</t>
-  </si>
-  <si>
-    <t>Seat belt</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>2.78</t>
-  </si>
-  <si>
-    <t>Child safety seat</t>
   </si>
 </sst>
 </file>
@@ -799,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>59</v>
@@ -822,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>59</v>
@@ -845,7 +830,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>59</v>
@@ -891,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>59</v>
@@ -931,13 +916,13 @@
         <v>48</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>59</v>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,115 +114,130 @@
     <t>427850003</t>
   </si>
   <si>
+    <t>Life vest/Lifejacket/Floatation device (for drowning)</t>
+  </si>
+  <si>
+    <t>102384007</t>
+  </si>
+  <si>
+    <t>Airbag</t>
+  </si>
+  <si>
+    <t>60054005</t>
+  </si>
+  <si>
+    <t>Seatbelt</t>
+  </si>
+  <si>
+    <t>285695004</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>74964007</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>261665006</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>LA9389-3</t>
+  </si>
+  <si>
+    <t>Childseat</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>used-codesystem</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>http://loinc.org|2.78</t>
+  </si>
+  <si>
+    <t>displayLanguage</t>
+  </si>
+  <si>
+    <t>en-US,en;q=0.9</t>
+  </si>
+  <si>
+    <t>warning-draft</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-SafetyDevices|1</t>
+  </si>
+  <si>
+    <t>includeDesignations</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
+  </si>
+  <si>
     <t>Life preserver flotation device</t>
   </si>
   <si>
-    <t>102384007</t>
-  </si>
-  <si>
     <t>Motor vehicle airbag</t>
   </si>
   <si>
-    <t>60054005</t>
-  </si>
-  <si>
     <t>Seat belt</t>
   </si>
   <si>
-    <t>285695004</t>
-  </si>
-  <si>
-    <t>Helmet</t>
-  </si>
-  <si>
-    <t>74964007</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>261665006</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>LA9389-3</t>
+    <t>2.78</t>
   </si>
   <si>
     <t>Child safety seat</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>used-codesystem</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>http://loinc.org|2.78</t>
-  </si>
-  <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
-    <t>warning-draft</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-SafetyDevices|1</t>
-  </si>
-  <si>
-    <t>includeDesignations</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
-  </si>
-  <si>
-    <t>2.78</t>
   </si>
 </sst>
 </file>
@@ -784,7 +799,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>59</v>
@@ -807,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>59</v>
@@ -830,7 +845,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>59</v>
@@ -876,7 +891,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>59</v>
@@ -916,13 +931,13 @@
         <v>48</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>59</v>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -180,64 +180,40 @@
     <t>http://loinc.org|2.78</t>
   </si>
   <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
     <t>warning-draft</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-SafetyDevices|1</t>
   </si>
   <si>
-    <t>includeDesignations</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
-  </si>
-  <si>
-    <t>Life preserver flotation device</t>
-  </si>
-  <si>
-    <t>Motor vehicle airbag</t>
-  </si>
-  <si>
-    <t>Seat belt</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>2.78</t>
-  </si>
-  <si>
-    <t>Child safety seat</t>
   </si>
 </sst>
 </file>
@@ -656,7 +632,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,22 +684,6 @@
       </c>
       <c r="B6" t="s" s="2">
         <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -741,36 +701,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>52</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>29</v>
@@ -779,90 +739,90 @@
         <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>37</v>
@@ -871,44 +831,44 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>45</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>41</v>
@@ -917,33 +877,33 @@
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>48</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-SafetyDevicesVS.xlsx
+++ b/ValueSet-SILPH-SafetyDevicesVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
